--- a/data/other/modelMetricsResults.xlsx
+++ b/data/other/modelMetricsResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talbi\Documents\Univ\M1\S1\TATIA\Projet2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talbi\Documents\Univ\M1\S1\TATIA\Projet2\data\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7FC6F1-EEA3-4466-8430-54883B98CF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46932A42-880D-49CF-B574-406850E4E91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="5835" windowWidth="28800" windowHeight="13995" activeTab="1" xr2:uid="{9214F012-399E-498F-86AC-7085BD05408C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{9214F012-399E-498F-86AC-7085BD05408C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
-  <si>
-    <t>n-gramme</t>
-  </si>
-  <si>
-    <t>Unigramme</t>
-  </si>
-  <si>
-    <t>Bigramme</t>
-  </si>
-  <si>
-    <t>Unigramme + Bigramme</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Gausian NB</t>
   </si>
@@ -70,12 +58,6 @@
   </si>
   <si>
     <t>SVC</t>
-  </si>
-  <si>
-    <t>unigramme+bigramme</t>
-  </si>
-  <si>
-    <t>unigramme+bigramme+trigramme</t>
   </si>
   <si>
     <t>Classifier Model for binary</t>
@@ -467,243 +449,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6F79D6-E426-42AC-9126-7718264910F2}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f xml:space="preserve"> 0.75</f>
-        <v>0.75</v>
-      </c>
-      <c r="D2">
-        <f xml:space="preserve"> 0.73</f>
-        <v>0.73</v>
-      </c>
-      <c r="E2">
-        <f xml:space="preserve"> 0.74</f>
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f>0.83</f>
-        <v>0.83</v>
-      </c>
-      <c r="D3">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="E3">
-        <f>0.82</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="B2">
         <f>0.88</f>
         <v>0.88</v>
       </c>
-      <c r="D4">
-        <v>0.78</v>
-      </c>
-      <c r="E4">
-        <f>0.82</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="C2">
+        <v>0.77</v>
+      </c>
+      <c r="D2">
         <f>0.81</f>
         <v>0.81</v>
       </c>
-      <c r="D5" s="1">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>0.84</f>
+        <v>0.84</v>
+      </c>
+      <c r="C3" s="1">
         <f>0.86</f>
         <v>0.86</v>
       </c>
-      <c r="E5">
-        <f>0.83</f>
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f>0.63</f>
-        <v>0.63</v>
-      </c>
-      <c r="D6">
-        <f>0.72</f>
-        <v>0.72</v>
-      </c>
-      <c r="E6">
-        <f>0.57</f>
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f>0.83</f>
-        <v>0.83</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D3">
+        <f>0.85</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>0.87</f>
+        <v>0.87</v>
+      </c>
+      <c r="C4">
+        <f>0.85</f>
+        <v>0.85</v>
+      </c>
+      <c r="D4" s="1">
         <f>0.86</f>
         <v>0.86</v>
       </c>
-      <c r="E7">
-        <f>0.84</f>
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f>0.85</f>
-        <v>0.85</v>
-      </c>
-      <c r="D8">
-        <f>0.85</f>
-        <v>0.85</v>
-      </c>
-      <c r="E8">
-        <f>0.85</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <f>0.65</f>
-        <v>0.65</v>
-      </c>
-      <c r="D9">
-        <f xml:space="preserve"> 0.74</f>
-        <v>0.74</v>
-      </c>
-      <c r="E9">
-        <f>0.62</f>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <f>0.87</f>
-        <v>0.87</v>
-      </c>
-      <c r="D10">
-        <f>0.85</f>
-        <v>0.85</v>
-      </c>
-      <c r="E10" s="1">
-        <f>0.86</f>
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <f>0.93</f>
-        <v>0.93</v>
-      </c>
-      <c r="D11">
-        <f>0.8</f>
-        <v>0.8</v>
-      </c>
-      <c r="E11">
-        <f>0.85</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <f>0.92</f>
-        <v>0.92</v>
-      </c>
-      <c r="D12">
-        <f>0.76</f>
-        <v>0.76</v>
-      </c>
-      <c r="E12">
-        <f>0.81</f>
-        <v>0.81</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <f>0.91</f>
+        <v>0.91</v>
+      </c>
+      <c r="C5">
+        <f>0.73</f>
+        <v>0.73</v>
+      </c>
+      <c r="D5">
+        <f>0.78</f>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D9" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -711,49 +555,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E30901-805F-42AB-9493-7048085CB2CC}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -771,12 +615,12 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -788,18 +632,18 @@
         <v>0.76</v>
       </c>
       <c r="F3">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="G3">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -817,12 +661,12 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -831,21 +675,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F5">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G5">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0.74</v>
